--- a/IPAM.xlsx
+++ b/IPAM.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Important notes</t>
   </si>
@@ -70,13 +71,88 @@
   </si>
   <si>
     <t>Last Updated:</t>
+  </si>
+  <si>
+    <t>APIs Basics and DevNet Resources</t>
+  </si>
+  <si>
+    <t>Getting started with SW Dev - Module 5</t>
+  </si>
+  <si>
+    <t>2.2, 2.3, 2.4, 2.5, 2.6, 2.8, 3.2, 3.7, 3.9.a, 5.14</t>
+  </si>
+  <si>
+    <t>HTTP Fundamentals</t>
+  </si>
+  <si>
+    <t>REST Fundamentals</t>
+  </si>
+  <si>
+    <t>REST Fundamentals - Modules 2, 3</t>
+  </si>
+  <si>
+    <t>2.3, 2.4, 2.8</t>
+  </si>
+  <si>
+    <t>Postman Fundamentals</t>
+  </si>
+  <si>
+    <t>Postman Fundamentals Modules 2, 3, 4</t>
+  </si>
+  <si>
+    <t>2.3, 2.4</t>
+  </si>
+  <si>
+    <t>Working with cURL</t>
+  </si>
+  <si>
+    <t>YouTube - Working with cURL</t>
+  </si>
+  <si>
+    <t>DNA Center API Hands-on</t>
+  </si>
+  <si>
+    <t>DevNet DNA Center API Lab</t>
+  </si>
+  <si>
+    <t>3.2, 3.7, 3.9.a, 5.7</t>
+  </si>
+  <si>
+    <t>Using Python requests with DNA Center</t>
+  </si>
+  <si>
+    <t>Getting started with SW Dev - Module 6</t>
+  </si>
+  <si>
+    <t>2.5, 2.7, 2.9, 3.2, 3.7, 3.9.a, 3.9.c, 5.7</t>
+  </si>
+  <si>
+    <t>Self-study challenge 1: Get list of DNAC Center devices</t>
+  </si>
+  <si>
+    <t>Getting started with SW Dev - Module 6 Challenge 1</t>
+  </si>
+  <si>
+    <t>Self-study challenge 1: Add a device to DNAC Center</t>
+  </si>
+  <si>
+    <t>Getting started with SW Dev - Module 6 Challenge 2</t>
+  </si>
+  <si>
+    <t>Review and test code to "delete" a device</t>
+  </si>
+  <si>
+    <t>Self-study: Craft Postman, cURL, and Python requests</t>
+  </si>
+  <si>
+    <t>Deck of Cards API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +188,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,20 +224,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -453,20 +544,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -508,7 +599,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -522,7 +613,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -615,20 +706,15 @@
       <c r="I19" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="4">
         <v>43966</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A5:I5"/>
@@ -636,6 +722,11 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A18:I18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="Cisco Certified DevNet Associate exam."/>
@@ -645,4 +736,206 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D9" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId10"/>
+    <hyperlink ref="D11" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IPAM.xlsx
+++ b/IPAM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Important notes</t>
   </si>
@@ -232,12 +232,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -245,6 +239,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,124 +560,124 @@
       <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -743,7 +743,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,10 +756,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11">
+      <c r="A1" s="5">
         <v>3</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1">
@@ -768,12 +768,12 @@
       <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -783,12 +783,12 @@
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="7">
         <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -798,12 +798,12 @@
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -813,12 +813,12 @@
       <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -828,12 +828,12 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -843,13 +843,13 @@
       <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C7">
@@ -858,12 +858,12 @@
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -873,12 +873,12 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -888,12 +888,12 @@
       <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>39</v>
       </c>
@@ -903,12 +903,12 @@
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -918,9 +918,7 @@
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>26</v>
-      </c>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
